--- a/StudetDataBackup/7. Linear Optimization/LPP.xlsx
+++ b/StudetDataBackup/7. Linear Optimization/LPP.xlsx
@@ -8,78 +8,174 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Training\Academy\Statistics (Python)\Demo Codes KnowIT Dec 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FBBCACD-EB0E-4127-8416-4A8656445413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBC8607-39AD-45FE-834A-32C520A38746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{C83EC65F-6208-4DA1-ACFE-FB32111E929A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{C83EC65F-6208-4DA1-ACFE-FB32111E929A}"/>
   </bookViews>
   <sheets>
     <sheet name="Prob1" sheetId="1" r:id="rId1"/>
     <sheet name="Prob2" sheetId="2" r:id="rId2"/>
+    <sheet name="Prob3" sheetId="3" r:id="rId3"/>
+    <sheet name="Prob4" sheetId="4" r:id="rId4"/>
+    <sheet name="Prob5" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">Prob1!$C$3:$D$3</definedName>
     <definedName name="solver_adj" localSheetId="1" hidden="1">Prob2!$C$3:$D$3</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">Prob3!$D$3:$E$3</definedName>
+    <definedName name="solver_adj" localSheetId="3" hidden="1">Prob4!$C$3:$D$3</definedName>
+    <definedName name="solver_adj" localSheetId="4" hidden="1">Prob5!$C$4:$D$4</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="4" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">Prob1!$F$6:$F$8</definedName>
     <definedName name="solver_lhs1" localSheetId="1" hidden="1">Prob2!$F$10:$F$11</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">Prob3!$G$6:$G$8</definedName>
+    <definedName name="solver_lhs1" localSheetId="3" hidden="1">Prob4!$F$7:$F$9</definedName>
+    <definedName name="solver_lhs1" localSheetId="4" hidden="1">Prob5!$F$10</definedName>
     <definedName name="solver_lhs2" localSheetId="1" hidden="1">Prob2!$F$6:$F$8</definedName>
+    <definedName name="solver_lhs2" localSheetId="4" hidden="1">Prob5!$F$7:$F$8</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="4" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="4" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">Prob1!$F$3</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">Prob2!$F$3</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">Prob3!$G$3</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">Prob4!$F$3</definedName>
+    <definedName name="solver_opt" localSheetId="4" hidden="1">Prob5!$F$4</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="4" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_rel1" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="4" hidden="1">3</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">Prob1!$H$6:$H$8</definedName>
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">Prob2!$H$10:$H$11</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">Prob3!$I$6:$I$8</definedName>
+    <definedName name="solver_rhs1" localSheetId="3" hidden="1">Prob4!$H$7:$H$9</definedName>
+    <definedName name="solver_rhs1" localSheetId="4" hidden="1">Prob5!$H$10</definedName>
     <definedName name="solver_rhs2" localSheetId="1" hidden="1">Prob2!$H$6:$H$8</definedName>
+    <definedName name="solver_rhs2" localSheetId="4" hidden="1">Prob5!$H$7:$H$8</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="4" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="4" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="4" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -99,7 +195,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t>x1</t>
   </si>
@@ -147,6 +243,51 @@
   </si>
   <si>
     <t>Month</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Lathe</t>
+  </si>
+  <si>
+    <t>Milling</t>
+  </si>
+  <si>
+    <t>Grinding</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>Fresh</t>
+  </si>
+  <si>
+    <t>Blossom</t>
+  </si>
+  <si>
+    <t>Moon</t>
+  </si>
+  <si>
+    <t>Corn</t>
+  </si>
+  <si>
+    <t>Soyabean</t>
+  </si>
+  <si>
+    <t>Protein</t>
+  </si>
+  <si>
+    <t>Fibre</t>
+  </si>
+  <si>
+    <t>Daily</t>
   </si>
 </sst>
 </file>
@@ -169,7 +310,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -200,8 +341,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -209,11 +356,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -229,6 +391,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -546,7 +719,7 @@
   <dimension ref="B2:H8"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -678,8 +851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B9E7ACB-734A-413A-8295-B1B5D72F5FBD}">
   <dimension ref="B2:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -823,4 +996,465 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D49914C5-3E09-4468-BD4F-1B3B2F577700}">
+  <dimension ref="B2:I15"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>200</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="7">
+        <f>SUMPRODUCT(D3:E3,D4:E4)</f>
+        <v>20000</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2">
+        <v>40</v>
+      </c>
+      <c r="E4" s="2">
+        <v>100</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2">
+        <v>6</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="7">
+        <f>SUMPRODUCT(D6:E6,D3:E3)</f>
+        <v>1200</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="7">
+        <f>SUMPRODUCT(D7:E7,D3:E3)</f>
+        <v>2000</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="7">
+        <f>SUMPRODUCT(D8:E8,D3:E3)</f>
+        <v>600</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="2">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA1C459-D84A-4C74-9315-39FFE6E6F344}">
+  <dimension ref="B2:H9"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C3" s="9">
+        <v>3.9999999999999982</v>
+      </c>
+      <c r="D3" s="9">
+        <v>11.999999999999996</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="10">
+        <f>SUMPRODUCT(C3:D3,C4:D4)</f>
+        <v>9399.9999999999964</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C4" s="2">
+        <v>700</v>
+      </c>
+      <c r="D4" s="2">
+        <v>550</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3000</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="10">
+        <f>SUMPRODUCT(C7:D7,C3:D3)</f>
+        <v>23999.999999999993</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="2">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="10">
+        <f>SUMPRODUCT(C8:D8,C3:D3)</f>
+        <v>15999.999999999995</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="2">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2000</v>
+      </c>
+      <c r="D9" s="2">
+        <v>6000</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="10">
+        <f>SUMPRODUCT(C9:D9,C3:D3)</f>
+        <v>79999.999999999985</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="2">
+        <v>48000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{319E8938-AB7A-4D90-8DC8-7013A190A069}">
+  <dimension ref="B3:H10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C4" s="8">
+        <v>470.58823529411768</v>
+      </c>
+      <c r="D4" s="8">
+        <v>329.41176470588232</v>
+      </c>
+      <c r="F4" s="11">
+        <f>SUMPRODUCT(C4:D4,C5:D5)</f>
+        <v>437.64705882352939</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C5">
+        <v>0.3</v>
+      </c>
+      <c r="D5">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="11">
+        <f>SUMPRODUCT(C7:D7,C4:D4)</f>
+        <v>239.99999999999997</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="11">
+        <f>SUMPRODUCT(C8:D8,C4:D4)</f>
+        <v>800</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="2">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="11">
+        <f>SUMPRODUCT(C10:D10,C4:D4)</f>
+        <v>29.17647058823529</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="2">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>